--- a/harana/datasets/BPSFH/3/chords.xlsx
+++ b/harana/datasets/BPSFH/3/chords.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11011"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EFF3C13-659A-4440-8EFB-54F96DE5C2FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -14,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1380" uniqueCount="536">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1381" uniqueCount="537">
   <si>
     <t>M</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1912,10 +1913,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>bVI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>7/4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2158,23 +2155,29 @@
   <si>
     <t>c</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5/-2</t>
+  </si>
+  <si>
+    <t>V/bII</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -2246,7 +2249,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -2262,7 +2265,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2337,6 +2340,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2372,6 +2392,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2547,21 +2584,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H441"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A179" workbookViewId="0">
-      <selection activeCell="D218" sqref="D218"/>
+    <sheetView tabSelected="1" topLeftCell="A388" workbookViewId="0">
+      <selection activeCell="G403" sqref="A403:G403"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="8" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
         <v>0</v>
       </c>
@@ -2584,7 +2621,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>4</v>
       </c>
@@ -2607,7 +2644,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>8</v>
       </c>
@@ -2630,7 +2667,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>12</v>
       </c>
@@ -2653,7 +2690,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>16</v>
       </c>
@@ -2676,7 +2713,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>18</v>
       </c>
@@ -2699,7 +2736,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>20</v>
       </c>
@@ -2722,7 +2759,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>22</v>
       </c>
@@ -2745,7 +2782,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>24</v>
       </c>
@@ -2768,7 +2805,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>26</v>
       </c>
@@ -2791,7 +2828,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>28</v>
       </c>
@@ -2814,7 +2851,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>30</v>
       </c>
@@ -2837,7 +2874,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>34</v>
       </c>
@@ -2860,7 +2897,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>36</v>
       </c>
@@ -2883,7 +2920,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>38</v>
       </c>
@@ -2906,7 +2943,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>40</v>
       </c>
@@ -2929,7 +2966,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>42</v>
       </c>
@@ -2952,7 +2989,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>44</v>
       </c>
@@ -2975,7 +3012,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>46</v>
       </c>
@@ -2998,7 +3035,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>48</v>
       </c>
@@ -3021,7 +3058,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>60</v>
       </c>
@@ -3044,7 +3081,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>62</v>
       </c>
@@ -3067,7 +3104,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>64</v>
       </c>
@@ -3090,7 +3127,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>72</v>
       </c>
@@ -3113,7 +3150,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>74</v>
       </c>
@@ -3136,7 +3173,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>76</v>
       </c>
@@ -3159,7 +3196,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>79</v>
       </c>
@@ -3182,7 +3219,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>80</v>
       </c>
@@ -3205,7 +3242,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>84</v>
       </c>
@@ -3228,7 +3265,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>86</v>
       </c>
@@ -3251,7 +3288,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>87</v>
       </c>
@@ -3274,7 +3311,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>88</v>
       </c>
@@ -3297,7 +3334,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>92</v>
       </c>
@@ -3320,7 +3357,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>94</v>
       </c>
@@ -3343,7 +3380,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>95</v>
       </c>
@@ -3366,7 +3403,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>96</v>
       </c>
@@ -3389,7 +3426,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>104</v>
       </c>
@@ -3412,7 +3449,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>108</v>
       </c>
@@ -3435,7 +3472,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>112</v>
       </c>
@@ -3458,7 +3495,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>116</v>
       </c>
@@ -3481,7 +3518,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>120</v>
       </c>
@@ -3504,7 +3541,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>122</v>
       </c>
@@ -3527,7 +3564,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>124</v>
       </c>
@@ -3550,7 +3587,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>128</v>
       </c>
@@ -3573,7 +3610,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>132</v>
       </c>
@@ -3596,7 +3633,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>136</v>
       </c>
@@ -3619,7 +3656,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>140</v>
       </c>
@@ -3642,7 +3679,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>144</v>
       </c>
@@ -3665,7 +3702,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>146</v>
       </c>
@@ -3688,7 +3725,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>148</v>
       </c>
@@ -3711,7 +3748,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>152</v>
       </c>
@@ -3734,7 +3771,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>155</v>
       </c>
@@ -3757,7 +3794,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>156</v>
       </c>
@@ -3780,7 +3817,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>158</v>
       </c>
@@ -3803,7 +3840,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>160</v>
       </c>
@@ -3826,7 +3863,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>163</v>
       </c>
@@ -3849,7 +3886,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>164</v>
       </c>
@@ -3872,7 +3909,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>166</v>
       </c>
@@ -3883,7 +3920,7 @@
         <v>76</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>111</v>
@@ -3895,7 +3932,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>168</v>
       </c>
@@ -3918,7 +3955,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>171</v>
       </c>
@@ -3941,7 +3978,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>172</v>
       </c>
@@ -3964,7 +4001,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>175</v>
       </c>
@@ -3987,7 +4024,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>176</v>
       </c>
@@ -4010,7 +4047,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>182</v>
       </c>
@@ -4033,7 +4070,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>184</v>
       </c>
@@ -4056,7 +4093,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>188</v>
       </c>
@@ -4079,7 +4116,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>192</v>
       </c>
@@ -4102,7 +4139,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>196</v>
       </c>
@@ -4125,7 +4162,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>200</v>
       </c>
@@ -4148,7 +4185,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>204</v>
       </c>
@@ -4171,7 +4208,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>208</v>
       </c>
@@ -4194,7 +4231,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>212</v>
       </c>
@@ -4217,7 +4254,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>216</v>
       </c>
@@ -4240,7 +4277,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>220</v>
       </c>
@@ -4263,7 +4300,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>224</v>
       </c>
@@ -4286,7 +4323,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>228</v>
       </c>
@@ -4309,7 +4346,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>232</v>
       </c>
@@ -4332,7 +4369,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>236</v>
       </c>
@@ -4355,7 +4392,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>240</v>
       </c>
@@ -4378,7 +4415,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>248</v>
       </c>
@@ -4401,7 +4438,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>256</v>
       </c>
@@ -4424,7 +4461,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>264</v>
       </c>
@@ -4447,7 +4484,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>272</v>
       </c>
@@ -4470,7 +4507,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>273</v>
       </c>
@@ -4493,7 +4530,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>274</v>
       </c>
@@ -4516,7 +4553,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>275</v>
       </c>
@@ -4539,7 +4576,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>276</v>
       </c>
@@ -4562,7 +4599,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>277</v>
       </c>
@@ -4585,7 +4622,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>278</v>
       </c>
@@ -4608,7 +4645,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>279</v>
       </c>
@@ -4631,7 +4668,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>280</v>
       </c>
@@ -4654,7 +4691,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>281</v>
       </c>
@@ -4677,7 +4714,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>282</v>
       </c>
@@ -4700,7 +4737,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>283</v>
       </c>
@@ -4723,7 +4760,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>284</v>
       </c>
@@ -4746,7 +4783,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>288</v>
       </c>
@@ -4769,7 +4806,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>292</v>
       </c>
@@ -4792,7 +4829,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>296</v>
       </c>
@@ -4815,7 +4852,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>300</v>
       </c>
@@ -4838,7 +4875,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>302</v>
       </c>
@@ -4861,7 +4898,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>304</v>
       </c>
@@ -4884,7 +4921,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>306</v>
       </c>
@@ -4907,7 +4944,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>310</v>
       </c>
@@ -4930,7 +4967,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>312</v>
       </c>
@@ -4953,7 +4990,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>314</v>
       </c>
@@ -4976,7 +5013,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>318</v>
       </c>
@@ -4999,7 +5036,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>320</v>
       </c>
@@ -5022,7 +5059,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>322</v>
       </c>
@@ -5045,7 +5082,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>326</v>
       </c>
@@ -5068,7 +5105,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>328</v>
       </c>
@@ -5091,7 +5128,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>330</v>
       </c>
@@ -5114,7 +5151,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>332</v>
       </c>
@@ -5137,7 +5174,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>334</v>
       </c>
@@ -5160,7 +5197,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>336</v>
       </c>
@@ -5183,7 +5220,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>340</v>
       </c>
@@ -5206,7 +5243,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>344</v>
       </c>
@@ -5229,7 +5266,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>348</v>
       </c>
@@ -5252,7 +5289,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>350</v>
       </c>
@@ -5275,7 +5312,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>352</v>
       </c>
@@ -5298,7 +5335,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>354</v>
       </c>
@@ -5321,7 +5358,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="121" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A121" s="3">
         <v>356</v>
       </c>
@@ -5344,7 +5381,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>360</v>
       </c>
@@ -5367,7 +5404,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>364</v>
       </c>
@@ -5390,7 +5427,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>368</v>
       </c>
@@ -5413,7 +5450,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>372</v>
       </c>
@@ -5436,7 +5473,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>376</v>
       </c>
@@ -5459,7 +5496,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>378</v>
       </c>
@@ -5482,7 +5519,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>380</v>
       </c>
@@ -5505,7 +5542,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>382</v>
       </c>
@@ -5528,7 +5565,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>384</v>
       </c>
@@ -5551,7 +5588,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>386</v>
       </c>
@@ -5574,7 +5611,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>388</v>
       </c>
@@ -5597,7 +5634,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>390</v>
       </c>
@@ -5620,7 +5657,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>394</v>
       </c>
@@ -5643,7 +5680,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>396</v>
       </c>
@@ -5666,7 +5703,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>398</v>
       </c>
@@ -5689,7 +5726,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>400</v>
       </c>
@@ -5712,7 +5749,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>402</v>
       </c>
@@ -5735,7 +5772,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>404</v>
       </c>
@@ -5758,7 +5795,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>406</v>
       </c>
@@ -5781,7 +5818,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>408</v>
       </c>
@@ -5804,7 +5841,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>420</v>
       </c>
@@ -5827,7 +5864,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>422</v>
       </c>
@@ -5850,7 +5887,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>424</v>
       </c>
@@ -5873,7 +5910,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>432</v>
       </c>
@@ -5896,7 +5933,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>434</v>
       </c>
@@ -5919,7 +5956,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>436</v>
       </c>
@@ -5942,7 +5979,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>439</v>
       </c>
@@ -5965,7 +6002,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>440</v>
       </c>
@@ -5988,7 +6025,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>444</v>
       </c>
@@ -6011,7 +6048,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>446</v>
       </c>
@@ -6034,7 +6071,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>447</v>
       </c>
@@ -6057,7 +6094,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>448</v>
       </c>
@@ -6080,7 +6117,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>452</v>
       </c>
@@ -6103,7 +6140,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>454</v>
       </c>
@@ -6126,7 +6163,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>455</v>
       </c>
@@ -6149,7 +6186,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>456</v>
       </c>
@@ -6172,7 +6209,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>464</v>
       </c>
@@ -6195,7 +6232,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>468</v>
       </c>
@@ -6218,7 +6255,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>472</v>
       </c>
@@ -6241,7 +6278,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>476</v>
       </c>
@@ -6264,7 +6301,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>480</v>
       </c>
@@ -6287,7 +6324,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>482</v>
       </c>
@@ -6310,7 +6347,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>484</v>
       </c>
@@ -6333,7 +6370,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>488</v>
       </c>
@@ -6356,7 +6393,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>492</v>
       </c>
@@ -6379,7 +6416,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>496</v>
       </c>
@@ -6402,7 +6439,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>500</v>
       </c>
@@ -6425,7 +6462,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>504</v>
       </c>
@@ -6448,7 +6485,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>506</v>
       </c>
@@ -6471,7 +6508,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>508</v>
       </c>
@@ -6494,7 +6531,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>512</v>
       </c>
@@ -6517,7 +6554,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>515</v>
       </c>
@@ -6540,7 +6577,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>516</v>
       </c>
@@ -6563,7 +6600,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>518</v>
       </c>
@@ -6586,7 +6623,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>520</v>
       </c>
@@ -6609,7 +6646,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>523</v>
       </c>
@@ -6632,7 +6669,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>524</v>
       </c>
@@ -6655,7 +6692,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>526</v>
       </c>
@@ -6666,7 +6703,7 @@
         <v>76</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E179" s="1" t="s">
         <v>111</v>
@@ -6678,7 +6715,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>528</v>
       </c>
@@ -6701,7 +6738,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>531</v>
       </c>
@@ -6724,7 +6761,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>532</v>
       </c>
@@ -6747,7 +6784,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>535</v>
       </c>
@@ -6770,7 +6807,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>536</v>
       </c>
@@ -6793,7 +6830,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>542</v>
       </c>
@@ -6816,7 +6853,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>544</v>
       </c>
@@ -6839,7 +6876,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>548</v>
       </c>
@@ -6862,7 +6899,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>552</v>
       </c>
@@ -6885,7 +6922,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>556</v>
       </c>
@@ -6908,7 +6945,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>560</v>
       </c>
@@ -6931,7 +6968,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>564</v>
       </c>
@@ -6954,7 +6991,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>568</v>
       </c>
@@ -6977,7 +7014,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>572</v>
       </c>
@@ -7000,7 +7037,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>576</v>
       </c>
@@ -7023,7 +7060,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>580</v>
       </c>
@@ -7046,7 +7083,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>584</v>
       </c>
@@ -7069,7 +7106,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>588</v>
       </c>
@@ -7092,7 +7129,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>592</v>
       </c>
@@ -7115,7 +7152,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>596</v>
       </c>
@@ -7138,7 +7175,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>600</v>
       </c>
@@ -7161,7 +7198,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>608</v>
       </c>
@@ -7184,7 +7221,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>616</v>
       </c>
@@ -7207,7 +7244,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>624</v>
       </c>
@@ -7230,7 +7267,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>632</v>
       </c>
@@ -7253,7 +7290,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>633</v>
       </c>
@@ -7276,7 +7313,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>634</v>
       </c>
@@ -7299,7 +7336,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>635</v>
       </c>
@@ -7322,7 +7359,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>636</v>
       </c>
@@ -7345,7 +7382,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>637</v>
       </c>
@@ -7368,7 +7405,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>638</v>
       </c>
@@ -7391,7 +7428,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>639</v>
       </c>
@@ -7414,7 +7451,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>640</v>
       </c>
@@ -7437,7 +7474,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>641</v>
       </c>
@@ -7460,7 +7497,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>642</v>
       </c>
@@ -7483,7 +7520,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>643</v>
       </c>
@@ -7506,7 +7543,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>644</v>
       </c>
@@ -7529,7 +7566,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>648</v>
       </c>
@@ -7552,7 +7589,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>652</v>
       </c>
@@ -7572,10 +7609,10 @@
         <v>2</v>
       </c>
       <c r="G218" s="1" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>656</v>
       </c>
@@ -7598,7 +7635,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>660</v>
       </c>
@@ -7621,7 +7658,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>662</v>
       </c>
@@ -7644,7 +7681,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>664</v>
       </c>
@@ -7667,7 +7704,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>666</v>
       </c>
@@ -7690,7 +7727,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>670</v>
       </c>
@@ -7713,7 +7750,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>672</v>
       </c>
@@ -7736,7 +7773,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>674</v>
       </c>
@@ -7759,7 +7796,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>678</v>
       </c>
@@ -7782,7 +7819,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>680</v>
       </c>
@@ -7805,7 +7842,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>682</v>
       </c>
@@ -7828,7 +7865,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>686</v>
       </c>
@@ -7851,7 +7888,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>688</v>
       </c>
@@ -7874,7 +7911,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>690</v>
       </c>
@@ -7897,7 +7934,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>692</v>
       </c>
@@ -7920,7 +7957,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>694</v>
       </c>
@@ -7943,7 +7980,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>696</v>
       </c>
@@ -7966,7 +8003,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>700</v>
       </c>
@@ -7989,7 +8026,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>704</v>
       </c>
@@ -8012,7 +8049,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>708</v>
       </c>
@@ -8035,7 +8072,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>710</v>
       </c>
@@ -8058,7 +8095,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>712</v>
       </c>
@@ -8081,7 +8118,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>714</v>
       </c>
@@ -8104,7 +8141,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="242" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A242" s="4">
         <v>716</v>
       </c>
@@ -8127,7 +8164,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="243" spans="1:7" ht="16.8" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:7" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <v>718</v>
       </c>
@@ -8150,7 +8187,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <v>722</v>
       </c>
@@ -8173,7 +8210,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <v>724</v>
       </c>
@@ -8196,7 +8233,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
         <v>726</v>
       </c>
@@ -8219,7 +8256,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>730</v>
       </c>
@@ -8242,7 +8279,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
         <v>732</v>
       </c>
@@ -8265,7 +8302,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
         <v>734</v>
       </c>
@@ -8288,7 +8325,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <v>738</v>
       </c>
@@ -8311,7 +8348,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <v>740</v>
       </c>
@@ -8334,7 +8371,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
         <v>742</v>
       </c>
@@ -8357,7 +8394,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
         <v>744</v>
       </c>
@@ -8380,7 +8417,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
         <v>752</v>
       </c>
@@ -8403,7 +8440,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
         <v>760</v>
       </c>
@@ -8426,7 +8463,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
         <v>768</v>
       </c>
@@ -8449,7 +8486,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
         <v>776</v>
       </c>
@@ -8472,7 +8509,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
         <v>784</v>
       </c>
@@ -8495,7 +8532,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
         <v>792</v>
       </c>
@@ -8518,7 +8555,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
         <v>796</v>
       </c>
@@ -8541,7 +8578,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
         <v>800</v>
       </c>
@@ -8564,7 +8601,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
         <v>804</v>
       </c>
@@ -8587,7 +8624,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
         <v>808</v>
       </c>
@@ -8610,7 +8647,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
         <v>818</v>
       </c>
@@ -8633,7 +8670,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
         <v>820</v>
       </c>
@@ -8656,7 +8693,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
         <v>822</v>
       </c>
@@ -8679,7 +8716,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
         <v>824</v>
       </c>
@@ -8702,7 +8739,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
         <v>834</v>
       </c>
@@ -8725,7 +8762,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
         <v>836</v>
       </c>
@@ -8748,7 +8785,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
         <v>838</v>
       </c>
@@ -8771,7 +8808,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
         <v>840</v>
       </c>
@@ -8794,7 +8831,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
         <v>850</v>
       </c>
@@ -8817,7 +8854,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
         <v>852</v>
       </c>
@@ -8840,7 +8877,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
         <v>854</v>
       </c>
@@ -8863,7 +8900,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
         <v>856</v>
       </c>
@@ -8886,7 +8923,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
         <v>858</v>
       </c>
@@ -8909,7 +8946,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
         <v>860</v>
       </c>
@@ -8932,7 +8969,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
         <v>862</v>
       </c>
@@ -8955,7 +8992,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
         <v>864</v>
       </c>
@@ -8978,7 +9015,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
         <v>866</v>
       </c>
@@ -9001,7 +9038,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
         <v>868</v>
       </c>
@@ -9024,7 +9061,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
         <v>870</v>
       </c>
@@ -9047,7 +9084,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
         <v>872</v>
       </c>
@@ -9070,7 +9107,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
         <v>876</v>
       </c>
@@ -9093,7 +9130,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
         <v>880</v>
       </c>
@@ -9116,7 +9153,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
         <v>884</v>
       </c>
@@ -9139,7 +9176,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
         <v>888</v>
       </c>
@@ -9162,7 +9199,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
         <v>892</v>
       </c>
@@ -9170,7 +9207,7 @@
         <v>896</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D288" s="2" t="s">
         <v>51</v>
@@ -9185,7 +9222,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="289" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A289" s="5">
         <v>896</v>
       </c>
@@ -9208,7 +9245,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="290" spans="1:7" ht="16.8" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:7" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
         <v>912</v>
       </c>
@@ -9231,7 +9268,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
         <v>916</v>
       </c>
@@ -9254,7 +9291,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
         <v>920</v>
       </c>
@@ -9277,7 +9314,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
         <v>924</v>
       </c>
@@ -9300,7 +9337,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
         <v>930</v>
       </c>
@@ -9323,7 +9360,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
         <v>932</v>
       </c>
@@ -9346,7 +9383,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
         <v>934</v>
       </c>
@@ -9369,7 +9406,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
         <v>936</v>
       </c>
@@ -9392,7 +9429,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
         <v>938</v>
       </c>
@@ -9415,7 +9452,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A299" s="1">
         <v>940</v>
       </c>
@@ -9438,7 +9475,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
         <v>942</v>
       </c>
@@ -9461,7 +9498,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A301" s="1">
         <v>944</v>
       </c>
@@ -9484,7 +9521,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A302" s="1">
         <v>946</v>
       </c>
@@ -9507,7 +9544,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A303" s="1">
         <v>948</v>
       </c>
@@ -9530,7 +9567,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A304" s="1">
         <v>950</v>
       </c>
@@ -9553,7 +9590,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A305" s="1">
         <v>952</v>
       </c>
@@ -9576,7 +9613,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A306" s="1">
         <v>954</v>
       </c>
@@ -9599,7 +9636,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A307" s="1">
         <v>956</v>
       </c>
@@ -9622,7 +9659,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A308" s="1">
         <v>958</v>
       </c>
@@ -9645,7 +9682,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A309" s="1">
         <v>960</v>
       </c>
@@ -9668,7 +9705,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A310" s="1">
         <v>962</v>
       </c>
@@ -9691,7 +9728,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A311" s="1">
         <v>964</v>
       </c>
@@ -9714,7 +9751,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A312" s="1">
         <v>966</v>
       </c>
@@ -9737,7 +9774,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A313" s="1">
         <v>968</v>
       </c>
@@ -9760,7 +9797,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A314" s="1">
         <v>970</v>
       </c>
@@ -9783,7 +9820,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A315" s="1">
         <v>972</v>
       </c>
@@ -9806,7 +9843,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A316" s="1">
         <v>974</v>
       </c>
@@ -9829,7 +9866,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A317" s="1">
         <v>976</v>
       </c>
@@ -9852,7 +9889,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A318" s="1">
         <v>980</v>
       </c>
@@ -9875,7 +9912,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A319" s="1">
         <v>982</v>
       </c>
@@ -9898,7 +9935,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A320" s="1">
         <v>983</v>
       </c>
@@ -9921,7 +9958,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A321" s="1">
         <v>984</v>
       </c>
@@ -9944,7 +9981,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A322" s="1">
         <v>988</v>
       </c>
@@ -9967,7 +10004,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A323" s="1">
         <v>990</v>
       </c>
@@ -9990,7 +10027,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A324" s="1">
         <v>991</v>
       </c>
@@ -10013,7 +10050,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A325" s="1">
         <v>992</v>
       </c>
@@ -10036,7 +10073,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A326" s="1">
         <v>1000</v>
       </c>
@@ -10059,7 +10096,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A327" s="1">
         <v>1004</v>
       </c>
@@ -10082,7 +10119,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A328" s="1">
         <v>1008</v>
       </c>
@@ -10105,7 +10142,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A329" s="1">
         <v>1012</v>
       </c>
@@ -10128,7 +10165,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A330" s="1">
         <v>1016</v>
       </c>
@@ -10151,7 +10188,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A331" s="1">
         <v>1018</v>
       </c>
@@ -10174,7 +10211,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A332" s="1">
         <v>1020</v>
       </c>
@@ -10197,7 +10234,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A333" s="1">
         <v>1024</v>
       </c>
@@ -10220,7 +10257,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A334" s="1">
         <v>1028</v>
       </c>
@@ -10243,7 +10280,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A335" s="1">
         <v>1032</v>
       </c>
@@ -10266,7 +10303,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A336" s="1">
         <v>1036</v>
       </c>
@@ -10289,7 +10326,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A337" s="1">
         <v>1040</v>
       </c>
@@ -10312,7 +10349,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A338" s="1">
         <v>1042</v>
       </c>
@@ -10335,7 +10372,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A339" s="1">
         <v>1044</v>
       </c>
@@ -10358,7 +10395,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A340" s="1">
         <v>1048</v>
       </c>
@@ -10381,7 +10418,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A341" s="1">
         <v>1051</v>
       </c>
@@ -10404,7 +10441,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A342" s="1">
         <v>1052</v>
       </c>
@@ -10427,7 +10464,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A343" s="1">
         <v>1054</v>
       </c>
@@ -10450,7 +10487,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A344" s="1">
         <v>1056</v>
       </c>
@@ -10473,7 +10510,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A345" s="1">
         <v>1059</v>
       </c>
@@ -10496,7 +10533,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A346" s="1">
         <v>1060</v>
       </c>
@@ -10519,7 +10556,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A347" s="1">
         <v>1062</v>
       </c>
@@ -10530,7 +10567,7 @@
         <v>412</v>
       </c>
       <c r="D347" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E347" s="1" t="s">
         <v>411</v>
@@ -10542,7 +10579,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A348" s="1">
         <v>1064</v>
       </c>
@@ -10565,7 +10602,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A349" s="1">
         <v>1067</v>
       </c>
@@ -10588,7 +10625,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A350" s="1">
         <v>1068</v>
       </c>
@@ -10611,7 +10648,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A351" s="1">
         <v>1071</v>
       </c>
@@ -10634,7 +10671,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A352" s="1">
         <v>1072</v>
       </c>
@@ -10657,7 +10694,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A353" s="1">
         <v>1078</v>
       </c>
@@ -10680,7 +10717,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A354" s="1">
         <v>1080</v>
       </c>
@@ -10703,7 +10740,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A355" s="1">
         <v>1084</v>
       </c>
@@ -10726,7 +10763,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A356" s="1">
         <v>1088</v>
       </c>
@@ -10749,7 +10786,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A357" s="1">
         <v>1092</v>
       </c>
@@ -10772,7 +10809,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A358" s="1">
         <v>1096</v>
       </c>
@@ -10795,7 +10832,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A359" s="1">
         <v>1100</v>
       </c>
@@ -10818,7 +10855,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A360" s="1">
         <v>1104</v>
       </c>
@@ -10841,7 +10878,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A361" s="1">
         <v>1108</v>
       </c>
@@ -10864,7 +10901,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A362" s="1">
         <v>1112</v>
       </c>
@@ -10887,7 +10924,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A363" s="1">
         <v>1116</v>
       </c>
@@ -10910,7 +10947,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A364" s="1">
         <v>1120</v>
       </c>
@@ -10933,7 +10970,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A365" s="1">
         <v>1124</v>
       </c>
@@ -10956,7 +10993,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A366" s="1">
         <v>1128</v>
       </c>
@@ -10979,7 +11016,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A367" s="1">
         <v>1132</v>
       </c>
@@ -11002,7 +11039,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A368" s="1">
         <v>1136</v>
       </c>
@@ -11025,7 +11062,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A369" s="1">
         <v>1144</v>
       </c>
@@ -11048,7 +11085,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A370" s="1">
         <v>1152</v>
       </c>
@@ -11071,7 +11108,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A371" s="1">
         <v>1160</v>
       </c>
@@ -11094,7 +11131,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A372" s="1">
         <v>1168</v>
       </c>
@@ -11117,7 +11154,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A373" s="1">
         <v>1169</v>
       </c>
@@ -11140,7 +11177,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A374" s="1">
         <v>1170</v>
       </c>
@@ -11163,7 +11200,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A375" s="1">
         <v>1171</v>
       </c>
@@ -11186,7 +11223,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A376" s="1">
         <v>1172</v>
       </c>
@@ -11209,7 +11246,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A377" s="1">
         <v>1173</v>
       </c>
@@ -11232,7 +11269,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A378" s="1">
         <v>1174</v>
       </c>
@@ -11255,7 +11292,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A379" s="1">
         <v>1175</v>
       </c>
@@ -11278,7 +11315,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A380" s="1">
         <v>1176</v>
       </c>
@@ -11301,7 +11338,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A381" s="1">
         <v>1177</v>
       </c>
@@ -11324,7 +11361,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A382" s="1">
         <v>1178</v>
       </c>
@@ -11347,7 +11384,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A383" s="1">
         <v>1180</v>
       </c>
@@ -11370,7 +11407,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A384" s="1">
         <v>1181</v>
       </c>
@@ -11393,7 +11430,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A385" s="1">
         <v>1182</v>
       </c>
@@ -11416,7 +11453,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A386" s="1">
         <v>1183</v>
       </c>
@@ -11439,7 +11476,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A387" s="1">
         <v>1184</v>
       </c>
@@ -11462,7 +11499,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A388" s="1">
         <v>1188</v>
       </c>
@@ -11485,7 +11522,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A389" s="1">
         <v>1192</v>
       </c>
@@ -11508,7 +11545,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A390" s="1">
         <v>1196</v>
       </c>
@@ -11531,7 +11568,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A391" s="1">
         <v>1198</v>
       </c>
@@ -11554,7 +11591,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A392" s="1">
         <v>1200</v>
       </c>
@@ -11577,7 +11614,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A393" s="1">
         <v>1202</v>
       </c>
@@ -11600,7 +11637,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A394" s="1">
         <v>1206</v>
       </c>
@@ -11623,7 +11660,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="395" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A395" s="1">
         <v>1208</v>
       </c>
@@ -11646,7 +11683,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="396" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A396" s="1">
         <v>1210</v>
       </c>
@@ -11669,7 +11706,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="397" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A397" s="1">
         <v>1214</v>
       </c>
@@ -11692,7 +11729,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="398" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A398" s="1">
         <v>1216</v>
       </c>
@@ -11715,7 +11752,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A399" s="1">
         <v>1218</v>
       </c>
@@ -11738,7 +11775,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A400" s="1">
         <v>1222</v>
       </c>
@@ -11761,7 +11798,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="401" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A401" s="1">
         <v>1224</v>
       </c>
@@ -11784,7 +11821,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A402" s="1">
         <v>1226</v>
       </c>
@@ -11807,7 +11844,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="403" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A403" s="1">
         <v>1228</v>
       </c>
@@ -11817,8 +11854,8 @@
       <c r="C403" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="D403" s="1">
-        <v>-6</v>
+      <c r="D403" s="1" t="s">
+        <v>535</v>
       </c>
       <c r="E403" s="1" t="s">
         <v>472</v>
@@ -11827,10 +11864,10 @@
         <v>0</v>
       </c>
       <c r="G403" s="1" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="404" spans="1:7" x14ac:dyDescent="0.3">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="404" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A404" s="1">
         <v>1252</v>
       </c>
@@ -11838,22 +11875,22 @@
         <v>1260</v>
       </c>
       <c r="C404" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D404" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="E404" s="1" t="s">
         <v>475</v>
-      </c>
-      <c r="E404" s="1" t="s">
-        <v>476</v>
       </c>
       <c r="F404" s="1">
         <v>2</v>
       </c>
       <c r="G404" s="1" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="405" spans="1:7" x14ac:dyDescent="0.3">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="405" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A405" s="1">
         <v>1260</v>
       </c>
@@ -11861,22 +11898,22 @@
         <v>1268</v>
       </c>
       <c r="C405" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D405" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E405" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F405" s="1">
         <v>2</v>
       </c>
       <c r="G405" s="1" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.3">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="406" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A406" s="1">
         <v>1268</v>
       </c>
@@ -11890,16 +11927,16 @@
         <v>7</v>
       </c>
       <c r="E406" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="F406" s="1">
+        <v>1</v>
+      </c>
+      <c r="G406" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="F406" s="1">
-        <v>1</v>
-      </c>
-      <c r="G406" s="1" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="407" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="407" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A407" s="1">
         <v>1272</v>
       </c>
@@ -11907,22 +11944,22 @@
         <v>1276</v>
       </c>
       <c r="C407" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D407" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E407" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="F407" s="1">
+        <v>1</v>
+      </c>
+      <c r="G407" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="E407" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="F407" s="1">
-        <v>1</v>
-      </c>
-      <c r="G407" s="1" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="408" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="408" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A408" s="1">
         <v>1276</v>
       </c>
@@ -11930,22 +11967,22 @@
         <v>1280</v>
       </c>
       <c r="C408" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D408" s="1">
         <v>7</v>
       </c>
       <c r="E408" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F408" s="1">
         <v>1</v>
       </c>
       <c r="G408" s="1" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.3">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="409" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A409" s="1">
         <v>1280</v>
       </c>
@@ -11953,22 +11990,22 @@
         <v>1284</v>
       </c>
       <c r="C409" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D409" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E409" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F409" s="1">
         <v>0</v>
       </c>
       <c r="G409" s="1" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.3">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="410" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A410" s="1">
         <v>1284</v>
       </c>
@@ -11976,22 +12013,22 @@
         <v>1286</v>
       </c>
       <c r="C410" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D410" s="1">
         <v>1</v>
       </c>
       <c r="E410" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="F410" s="1">
         <v>2</v>
       </c>
       <c r="G410" s="1" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="411" spans="1:7" x14ac:dyDescent="0.3">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="411" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A411" s="1">
         <v>1286</v>
       </c>
@@ -12005,16 +12042,16 @@
         <v>5</v>
       </c>
       <c r="E411" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="F411" s="1">
+        <v>0</v>
+      </c>
+      <c r="G411" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="F411" s="1">
-        <v>0</v>
-      </c>
-      <c r="G411" s="1" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="412" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="412" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A412" s="1">
         <v>1290</v>
       </c>
@@ -12022,22 +12059,22 @@
         <v>1294</v>
       </c>
       <c r="C412" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D412" s="1">
         <v>1</v>
       </c>
       <c r="E412" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="F412" s="1">
+        <v>0</v>
+      </c>
+      <c r="G412" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="F412" s="1">
-        <v>0</v>
-      </c>
-      <c r="G412" s="1" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="413" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A413" s="1">
         <v>1294</v>
       </c>
@@ -12045,22 +12082,22 @@
         <v>1298</v>
       </c>
       <c r="C413" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D413" s="1">
         <v>5</v>
       </c>
       <c r="E413" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="F413" s="1">
         <v>0</v>
       </c>
       <c r="G413" s="1" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="414" spans="1:7" x14ac:dyDescent="0.3">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="414" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A414" s="1">
         <v>1298</v>
       </c>
@@ -12068,22 +12105,22 @@
         <v>1302</v>
       </c>
       <c r="C414" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D414" s="1">
         <v>5</v>
       </c>
       <c r="E414" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="F414" s="1">
+        <v>0</v>
+      </c>
+      <c r="G414" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="F414" s="1">
-        <v>0</v>
-      </c>
-      <c r="G414" s="1" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="415" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="415" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A415" s="1">
         <v>1302</v>
       </c>
@@ -12103,10 +12140,10 @@
         <v>0</v>
       </c>
       <c r="G415" s="1" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="416" spans="1:7" x14ac:dyDescent="0.3">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="416" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A416" s="1">
         <v>1308</v>
       </c>
@@ -12114,22 +12151,22 @@
         <v>1310</v>
       </c>
       <c r="C416" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D416" s="1">
         <v>5</v>
       </c>
       <c r="E416" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F416" s="1">
         <v>0</v>
       </c>
       <c r="G416" s="1" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="417" spans="1:7" x14ac:dyDescent="0.3">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="417" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A417" s="1">
         <v>1310</v>
       </c>
@@ -12137,22 +12174,22 @@
         <v>1312</v>
       </c>
       <c r="C417" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D417" s="1">
         <v>1</v>
       </c>
       <c r="E417" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F417" s="1">
         <v>0</v>
       </c>
       <c r="G417" s="1" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="418" spans="1:7" x14ac:dyDescent="0.3">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="418" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A418" s="1">
         <v>1312</v>
       </c>
@@ -12166,16 +12203,16 @@
         <v>5</v>
       </c>
       <c r="E418" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="F418" s="1">
+        <v>0</v>
+      </c>
+      <c r="G418" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="F418" s="1">
-        <v>0</v>
-      </c>
-      <c r="G418" s="1" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="419" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="419" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A419" s="1">
         <v>1314</v>
       </c>
@@ -12183,22 +12220,22 @@
         <v>1316</v>
       </c>
       <c r="C419" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D419" s="1">
         <v>1</v>
       </c>
       <c r="E419" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F419" s="1">
         <v>0</v>
       </c>
       <c r="G419" s="1" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.3">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="420" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A420" s="1">
         <v>1316</v>
       </c>
@@ -12212,16 +12249,16 @@
         <v>5</v>
       </c>
       <c r="E420" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F420" s="1">
         <v>1</v>
       </c>
       <c r="G420" s="1" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="421" spans="1:7" x14ac:dyDescent="0.3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="421" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A421" s="1">
         <v>1318</v>
       </c>
@@ -12229,22 +12266,22 @@
         <v>1320</v>
       </c>
       <c r="C421" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D421" s="1">
         <v>1</v>
       </c>
       <c r="E421" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="F421" s="1">
+        <v>1</v>
+      </c>
+      <c r="G421" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="F421" s="1">
-        <v>1</v>
-      </c>
-      <c r="G421" s="1" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="422" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="422" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A422" s="1">
         <v>1320</v>
       </c>
@@ -12252,22 +12289,22 @@
         <v>1322</v>
       </c>
       <c r="C422" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D422" s="1">
         <v>2</v>
       </c>
       <c r="E422" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="F422" s="1">
+        <v>0</v>
+      </c>
+      <c r="G422" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="F422" s="1">
-        <v>0</v>
-      </c>
-      <c r="G422" s="1" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="423" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="423" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A423" s="1">
         <v>1322</v>
       </c>
@@ -12275,22 +12312,22 @@
         <v>1324</v>
       </c>
       <c r="C423" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D423" s="1">
         <v>1</v>
       </c>
       <c r="E423" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F423" s="1">
         <v>2</v>
       </c>
       <c r="G423" s="1" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="424" spans="1:7" x14ac:dyDescent="0.3">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="424" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A424" s="1">
         <v>1324</v>
       </c>
@@ -12298,22 +12335,22 @@
         <v>1326</v>
       </c>
       <c r="C424" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D424" s="1">
         <v>2</v>
       </c>
       <c r="E424" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="F424" s="1">
+        <v>1</v>
+      </c>
+      <c r="G424" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="F424" s="1">
-        <v>1</v>
-      </c>
-      <c r="G424" s="1" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="425" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="425" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A425" s="1">
         <v>1326</v>
       </c>
@@ -12321,7 +12358,7 @@
         <v>1328</v>
       </c>
       <c r="C425" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D425" s="1">
         <v>1</v>
@@ -12333,10 +12370,10 @@
         <v>1</v>
       </c>
       <c r="G425" s="1" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="426" spans="1:7" x14ac:dyDescent="0.3">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="426" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A426" s="1">
         <v>1328</v>
       </c>
@@ -12344,22 +12381,22 @@
         <v>1330</v>
       </c>
       <c r="C426" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D426" s="1">
         <v>7</v>
       </c>
       <c r="E426" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="F426" s="1">
+        <v>1</v>
+      </c>
+      <c r="G426" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="F426" s="1">
-        <v>1</v>
-      </c>
-      <c r="G426" s="1" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="427" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="427" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A427" s="1">
         <v>1330</v>
       </c>
@@ -12379,10 +12416,10 @@
         <v>0</v>
       </c>
       <c r="G427" s="1" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="428" spans="1:7" x14ac:dyDescent="0.3">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="428" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A428" s="1">
         <v>1338</v>
       </c>
@@ -12396,16 +12433,16 @@
         <v>2</v>
       </c>
       <c r="E428" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="F428" s="1">
+        <v>1</v>
+      </c>
+      <c r="G428" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="F428" s="1">
-        <v>1</v>
-      </c>
-      <c r="G428" s="1" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="429" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="429" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A429" s="1">
         <v>1342</v>
       </c>
@@ -12413,22 +12450,22 @@
         <v>1346</v>
       </c>
       <c r="C429" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D429" s="1">
         <v>5</v>
       </c>
       <c r="E429" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F429" s="1">
         <v>0</v>
       </c>
       <c r="G429" s="1" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="430" spans="1:7" x14ac:dyDescent="0.3">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="430" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A430" s="1">
         <v>1346</v>
       </c>
@@ -12436,22 +12473,22 @@
         <v>1354</v>
       </c>
       <c r="C430" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D430" s="1">
         <v>6</v>
       </c>
       <c r="E430" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="F430" s="1">
+        <v>0</v>
+      </c>
+      <c r="G430" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="F430" s="1">
-        <v>0</v>
-      </c>
-      <c r="G430" s="1" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="431" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="431" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A431" s="1">
         <v>1354</v>
       </c>
@@ -12465,16 +12502,16 @@
         <v>4</v>
       </c>
       <c r="E431" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="F431" s="1">
         <v>0</v>
       </c>
       <c r="G431" s="1" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="432" spans="1:7" x14ac:dyDescent="0.3">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="432" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A432" s="1">
         <v>1358</v>
       </c>
@@ -12482,7 +12519,7 @@
         <v>1362</v>
       </c>
       <c r="C432" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D432" s="1">
         <v>1</v>
@@ -12494,10 +12531,10 @@
         <v>2</v>
       </c>
       <c r="G432" s="1" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="433" spans="1:7" x14ac:dyDescent="0.3">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="433" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A433" s="1">
         <v>1362</v>
       </c>
@@ -12505,22 +12542,22 @@
         <v>1366</v>
       </c>
       <c r="C433" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D433" s="1">
         <v>5</v>
       </c>
       <c r="E433" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="F433" s="1">
+        <v>0</v>
+      </c>
+      <c r="G433" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="F433" s="1">
-        <v>0</v>
-      </c>
-      <c r="G433" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="434" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="434" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A434" s="1">
         <v>1366</v>
       </c>
@@ -12528,22 +12565,22 @@
         <v>1370</v>
       </c>
       <c r="C434" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D434" s="1">
         <v>1</v>
       </c>
       <c r="E434" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="F434" s="1">
         <v>0</v>
       </c>
       <c r="G434" s="1" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="435" spans="1:7" x14ac:dyDescent="0.3">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="435" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A435" s="1">
         <v>1370</v>
       </c>
@@ -12557,16 +12594,16 @@
         <v>5</v>
       </c>
       <c r="E435" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="F435" s="1">
+        <v>1</v>
+      </c>
+      <c r="G435" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="F435" s="1">
-        <v>1</v>
-      </c>
-      <c r="G435" s="1" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="436" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="436" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A436" s="1">
         <v>1374</v>
       </c>
@@ -12574,22 +12611,22 @@
         <v>1378</v>
       </c>
       <c r="C436" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D436" s="1">
         <v>1</v>
       </c>
       <c r="E436" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="F436" s="1">
         <v>0</v>
       </c>
       <c r="G436" s="1" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="437" spans="1:7" x14ac:dyDescent="0.3">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="437" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A437" s="1">
         <v>1378</v>
       </c>
@@ -12597,22 +12634,22 @@
         <v>1380</v>
       </c>
       <c r="C437" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D437" s="1">
         <v>5</v>
       </c>
       <c r="E437" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="F437" s="1">
         <v>1</v>
       </c>
       <c r="G437" s="1" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="438" spans="1:7" x14ac:dyDescent="0.3">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="438" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A438" s="1">
         <v>1380</v>
       </c>
@@ -12620,22 +12657,22 @@
         <v>1382</v>
       </c>
       <c r="C438" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D438" s="1">
         <v>5</v>
       </c>
       <c r="E438" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F438" s="1">
         <v>0</v>
       </c>
       <c r="G438" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="439" spans="1:7" x14ac:dyDescent="0.3">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="439" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A439" s="1">
         <v>1382</v>
       </c>
@@ -12643,22 +12680,22 @@
         <v>1384</v>
       </c>
       <c r="C439" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="D439" s="1">
+        <v>1</v>
+      </c>
+      <c r="E439" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="F439" s="1">
+        <v>0</v>
+      </c>
+      <c r="G439" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="D439" s="1">
-        <v>1</v>
-      </c>
-      <c r="E439" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="F439" s="1">
-        <v>0</v>
-      </c>
-      <c r="G439" s="1" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="440" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="440" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A440" s="1">
         <v>1384</v>
       </c>
@@ -12666,22 +12703,22 @@
         <v>1386</v>
       </c>
       <c r="C440" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D440" s="1">
         <v>5</v>
       </c>
       <c r="E440" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="F440" s="1">
+        <v>0</v>
+      </c>
+      <c r="G440" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="F440" s="1">
-        <v>0</v>
-      </c>
-      <c r="G440" s="1" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="441" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="441" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A441" s="1">
         <v>1386</v>
       </c>
@@ -12701,7 +12738,7 @@
         <v>0</v>
       </c>
       <c r="G441" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
   </sheetData>
